--- a/New-Implementation/Data/simple-optimal.xlsx
+++ b/New-Implementation/Data/simple-optimal.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-402802.8091185736</v>
+        <v>670.5865089999995</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2858.812624859403</v>
+        <v>2.930399</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -503,16 +503,16 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>2999.999999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -526,17 +526,17 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2886.679419049902</v>
+        <v>2.940398999999996</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -550,12 +550,12 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>2999.999999999981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -573,13 +573,13 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2914.827696010004</v>
+        <v>1.9701</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="O4" t="n">
-        <v>2999.999999999998</v>
+        <v>1.940399</v>
       </c>
     </row>
     <row r="5">
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -620,17 +620,17 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2943.260299000001</v>
+        <v>1.95999898989899</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -644,12 +644,12 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>2999.999999999971</v>
+        <v>2.58719866666666</v>
       </c>
     </row>
     <row r="6">
       <c r="E6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2971.980099999997</v>
+        <v>1.291099501</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -691,16 +691,16 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>2999.999999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="E7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -714,17 +714,17 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3000.989999999996</v>
+        <v>3.57719866666667</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -738,12 +738,12 @@
         </is>
       </c>
       <c r="O7" t="n">
-        <v>2999.999999999996</v>
+        <v>2.587198666666669</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -761,13 +761,13 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3030.292929292925</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -785,19 +785,40 @@
         </is>
       </c>
       <c r="O8" t="n">
-        <v>2999.999999999991</v>
+        <v>1.940399</v>
       </c>
     </row>
     <row r="9">
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CPU1</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>2.940399000000001</v>
+      </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -811,15 +832,36 @@
         </is>
       </c>
       <c r="O9" t="n">
-        <v>2999.509999999969</v>
+        <v>2.587198666666663</v>
       </c>
     </row>
     <row r="10">
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>CPU1</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -837,19 +879,40 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>2999.509999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>CPU1</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>2.940399000000001</v>
+      </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -863,7 +926,7 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>2999.509999999973</v>
+        <v>2.587198666666669</v>
       </c>
     </row>
     <row r="12">
@@ -871,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -889,7 +952,7 @@
         </is>
       </c>
       <c r="O12" t="n">
-        <v>2999.509999999969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -897,11 +960,11 @@
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -915,7 +978,7 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>2999.509999999995</v>
+        <v>2.561326679999993</v>
       </c>
     </row>
     <row r="14">
@@ -923,7 +986,7 @@
         <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -941,7 +1004,7 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>2999.510000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -949,11 +1012,11 @@
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -967,15 +1030,15 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>2999.509999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -993,19 +1056,19 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>2998.529899999997</v>
+        <v>1.950399</v>
       </c>
     </row>
     <row r="17">
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1019,15 +1082,15 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>2998.529899999955</v>
+        <v>2.56132668</v>
       </c>
     </row>
     <row r="18">
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1045,19 +1108,19 @@
         </is>
       </c>
       <c r="O18" t="n">
-        <v>2998.529899999973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>3</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1071,12 +1134,12 @@
         </is>
       </c>
       <c r="O19" t="n">
-        <v>2998.529900000017</v>
+        <v>2.561326680000002</v>
       </c>
     </row>
     <row r="20">
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>4</v>
@@ -1097,19 +1160,19 @@
         </is>
       </c>
       <c r="O20" t="n">
-        <v>2998.529899999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="J21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1123,7 +1186,7 @@
         </is>
       </c>
       <c r="O21" t="n">
-        <v>2998.529899999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1131,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1149,19 +1212,19 @@
         </is>
       </c>
       <c r="O22" t="n">
-        <v>2998.529899999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="J23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1175,12 +1238,12 @@
         </is>
       </c>
       <c r="O23" t="n">
-        <v>2997.559600999936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1201,19 +1264,19 @@
         </is>
       </c>
       <c r="O24" t="n">
-        <v>2997.559600999971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -1227,15 +1290,15 @@
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2997.559601000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1253,19 +1316,19 @@
         </is>
       </c>
       <c r="O26" t="n">
-        <v>2997.559600999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="J27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -1279,15 +1342,15 @@
         </is>
       </c>
       <c r="O27" t="n">
-        <v>2997.559600999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="J28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1305,19 +1368,19 @@
         </is>
       </c>
       <c r="O28" t="n">
-        <v>2997.559600999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="J29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -1331,15 +1394,15 @@
         </is>
       </c>
       <c r="O29" t="n">
-        <v>2997.559600999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="J30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1357,19 +1420,19 @@
         </is>
       </c>
       <c r="O30" t="n">
-        <v>2996.599004989961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="J31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -1383,15 +1446,15 @@
         </is>
       </c>
       <c r="O31" t="n">
-        <v>2996.599004989981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="J32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1409,19 +1472,19 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>2996.599004989986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="J33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -1435,15 +1498,15 @@
         </is>
       </c>
       <c r="O33" t="n">
-        <v>2996.599004989971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="J34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1461,19 +1524,19 @@
         </is>
       </c>
       <c r="O34" t="n">
-        <v>2996.599004989971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="J35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -1487,15 +1550,15 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>2996.599004989986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="J36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1513,19 +1576,19 @@
         </is>
       </c>
       <c r="O36" t="n">
-        <v>2996.59900498999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="J37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -1539,15 +1602,15 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>2995.196534790683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="J38" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1565,19 +1628,19 @@
         </is>
       </c>
       <c r="O38" t="n">
-        <v>2995.196534790693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="J39" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -1591,15 +1654,15 @@
         </is>
       </c>
       <c r="O39" t="n">
-        <v>2995.196534790672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="J40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1617,19 +1680,19 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>2995.196534790673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="J41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
         <v>4</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -1643,59 +1706,7 @@
         </is>
       </c>
       <c r="O41" t="n">
-        <v>2995.196534790693</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="J42" t="n">
-        <v>6</v>
-      </c>
-      <c r="K42" t="n">
-        <v>5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>CPU1</t>
-        </is>
-      </c>
-      <c r="O42" t="n">
-        <v>2995.196534790693</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="J43" t="n">
-        <v>6</v>
-      </c>
-      <c r="K43" t="n">
-        <v>6</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>CPU1</t>
-        </is>
-      </c>
-      <c r="O43" t="n">
-        <v>2995.196534790683</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
